--- a/media/Report.xlsx
+++ b/media/Report.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +465,5190 @@
           <t>ENTREGUE</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ATUALIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ADAO SÉRGIO REIS SILVEIRA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>28085</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>59230398268</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:00:24.612427+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ALBENOR REINALDO DE SALES</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>25118</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34345272220</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:07:16.564175+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BINDÁ MOURA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>34849</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>02099882231</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:00:28.212058+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ALEX RODRIGUES VIVEIROS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>38822</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>05539483260</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:07:17.071430+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ALEXANDER AFONSO NOGUEIRA CAVALCANTE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>33269</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77539060204</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-10-06 18:14:46.589514+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ALEXANDRE IKUNO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>28983</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67240135268</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:20:48.257690+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ALEXANDRE IKUNO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>28983</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67240135268</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:21:33.662206+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ALÍCIA MARIA AGUIAR DOS SANTOS DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>40478</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15743331782</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:11:54.037705+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ALISSON ARAUJO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>28527</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67943071204</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:06:26.337356+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ALYSON MONTEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>37839</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>03880394261</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:42:48.720065+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ALYSON MONTEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>37839</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>03880394261</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:43:15.090724+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AMMY COELHO FERREIRA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>33213</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93279140234</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:35:16.203722+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AMMY COELHO FERREIRA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>33213</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93279140234</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:35:30.263417+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ANDERSON MENDES TELES</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>28260</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>57474397234</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:10:44.719954+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ANDRESON COLARES DOS REIS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>28958</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64843190225</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:26:45.966010+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ANFREMON DAMAZONAS MONTEIRO NETO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>27850</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>56080255200</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:18:57.209496+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ANGELYNNE VICTORIA ALENCAR DA ROCHA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>40265</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>02541046227</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:09:02.215372+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ARIMATEIA DE SOUZA VINHOTE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>30909</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79936040287</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:41:03.108921+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ARMANDO HIROYUKI MORI JUNIOR</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>32300</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94861331234</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:28:31.614439+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AZEVEDO CELSO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>32571</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>00054241278</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:36:04.131049+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AZEVEDO CELSO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>32571</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>00054241278</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:36:28.788440+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BARBARA GABRIELLE NASCIMENTO DA CUNHA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>30935</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78436761200</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:19:37.031991+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BIANCA GUEDES</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>34784</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>02077695242</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:22:59.556736+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BRENO DE LIMA NOBRE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>28522</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>57341672234</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:11:10.318765+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CAIO MARQUES DE SOUSA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>32659</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96327138268</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:50:41.953138+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CAIO SAKAMOTO SOUSA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>37062</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>02598916220</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:45:31.866894+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CAROLINA CORDEIRO PINHEIRO FERREIRA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>29610</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75090910200</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:10:16.934652+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CASSIO LUCAS CARMO DA SILVA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>34946</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>02205069225</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:39:44.841720+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CHARLES RODRIGUES PEREIRA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>29356</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>08238304709</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:44:40.857256+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CLAIRE MARIA JESUS SOUZA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>33995</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>02026792259</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:22:18.783181+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CLAUDIANE MENEZES</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>30833</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73830887272</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:15:13.357246+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CLEUDSON DE OLIVEIRA E SILVA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>28733</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61329827287</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:28:27.717683+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>COSME COSTA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>26529</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>44546416253</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:59:08.804847+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CYRO ALEXANDER DE AZEVEDO MARTINIANO</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>26133</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12341017851</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:07:53.322714+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DANIELE SANTOS DA SILVA SHIOTA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>28423</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>63310791220</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:05:06.520482+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DAUTON CORONIN</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>23587</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21485119200</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:52:57.735886+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DAVI DA SILVA GOMES</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>37665</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>05383848240</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:13:03.590898+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DAVI MENDES COSTA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>28072</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76192083304</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:48:19.000659+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DAVID TELLES</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>32215</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94602590225</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:49:00.015590+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DEAN LUIZ ATHAYDE BIZERRA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>32322</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>53157842234</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:55:30.916647+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DESSANA PAIVA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>29577</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70413037215</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:03:12.339228+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DILSON MOTTA DA SILVA FILHO</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>25347</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01164560786</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:32:39.317741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ELTHON ESTRELA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>27659</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>49367994249</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:06:36.495290+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ELTHON ESTRELA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>27659</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>49367994249</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:07:01.323596+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>EMERSON ARAUJO DO NASCIMENTO JUNIOR</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>34524</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>02166375200</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:28:00.742898+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>EMERSON ARAUJO DO NASCIMENTO JUNIOR</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>34524</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>02166375200</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:28:20.153401+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>EMILIO JORGE FORMENTIM LOPES</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>24687</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>32046340272</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:25:03.982820+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ERICK DO NASCIMENTO FARIAS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>31803</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90342224204</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:02:36.019109+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ERIKA CAROLINE JUCÁ OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>31909</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86077007234</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:06:24.126678+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ERIKA CAROLINE JUCÁ OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>31909</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86077007234</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:06:54.369374+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ERIKA CHRISTINA SOUZA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>34731</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93017847268</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:05:03.642730+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ERIKA CHRISTINA SOUZA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>34731</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93017847268</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:04:42.179462+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ESTEFFANY SIQUEIRA FEITOZA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>34658</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01881170241</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:23:35.057380+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FABÍOLA BENARRÓS SARAIVA DA CRUZ</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>28482</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>60335297234</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:09:05.514687+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FABIOLA BESSA SALMITO</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>28929</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83852417368</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:24:34.091908+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FAUSTO PIERRE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>27096</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>47578742272</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:41:29.999880+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FELIPE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>30756</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80812120272</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:29:04.674939+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>FRANCINEI DO ROSÁRIO CUNHA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>25009</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>32071078268</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:40:50.303300+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GESILDA MARIA FERREIRA</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>25896</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>34507760291</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:04:50.756754+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GIOVANNI COSTA PRIANTE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>33174</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>00345373251</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:27:45.362365+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GLAUCIANE MOREIRA NEVES</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>26361</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>38779200206</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:33:40.903489+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GUILHERME VIEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>32899</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93089791234</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:52:43.509376+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GUSTAVO DE OLIVEIRA BARROS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>38666</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>05802538210</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:04:02.886180+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>HEITOR COSTA VIEIRA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>31905</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90961650206</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:25:04.464148+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HELP DUARTE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>24579</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27496147249</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:59:13.703689+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>HERBERTH DE LIMA LOPES</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>26824</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>44587791253</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:51:18.455088+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>IRAPUAN ALFAIA CASTELLANI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>32075</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>11635292735</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:00:35.442643+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ISABELLE DE ALMEIDA PINHEIRO</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>40058</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>08528105202</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:41:34.568448+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>IVANEIDE LIMA DE SOUZA DA SILVAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>24964</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>33778264249</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:02:30.422258+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>JACY GALGANI SILVA GORDIANO</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>32789</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94091455204</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:22:26.835245+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>JADE BARBOSA RIBEIRO</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>34212</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77291859204</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:03:30.770705+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>JAIME DA SILVA OHANA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>31224</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82651221287</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:09:52.049084+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JEFFERSON FARIAS CALDAS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>30224</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85432210304</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:23:36.801333+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>JÉSSICA HERMINO DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>34857</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95468528215</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:47:35.787700+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JOMAR MESSIAS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>25946</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>32055994204</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:55:28.324378+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>JORSENILDO DOURADO DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>28630</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>61306584272</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:41:12.375672+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO PELLEGRIN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>31855</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85994677272</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:14:04.151664+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO PELLEGRIN</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>31855</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85994677272</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:11:06.404009+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>JOSE CARLOS FERNANDES TAVARES</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>22247</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>08429948821</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:29:15.611979+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>JOSÉ RIBAMAR DA SILVA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>24686</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21009350200</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:37:24.452478+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>JUAREZ NASCIMENTO DE OLIVEIRA FILHO</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>31844</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91658209249</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:19:59.868606+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>JUCIMAR BRITO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>24541</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27352943234</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:27:32.165141+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>JÚLIA DUARTE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>31974</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81660774268</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:08:43.868700+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>JULIA SOFIA GONCALVES MESSIAS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>40301</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>70580620212</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:55:54.786552+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>JULIO CESAR DE SOUZA MESQUITA JUNIOR</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>29872</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>69350990210</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:59:00.280284+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>JUNIOR FERREIRA MACHADO</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>28831</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>63681749272</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:14:38.454941+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>KAMILE CATIQUE NORONHA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>29100</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>03179862440</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:56:56.600219+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>KAMILE CATIQUE NORONHA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>29100</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>03179862440</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:58:24.303485+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>KATHLEEN MANOELLA AMARAL DA SILVA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>39131</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>05274884296</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:37:42.163968+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>KATHLEEN MANOELLA AMARAL DA SILVA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>39131</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>05274884296</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:39:05.121228+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>KATHLEEN MANOELLA AMARAL DA SILVA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>39131</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>05274884296</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:39:22.569871+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>KÁTIA HELENA ALMEIDA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>28780</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>61610747291</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:32:32.297547+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>KÁTIA HELENA ALMEIDA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>28780</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>61610747291</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:31:36.579877+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LEANDRA SOLART LEAL</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>36477</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>02481070208</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2023-10-06 18:20:26.616087+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>LEANDRO OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>30543</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>29987775896</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:49:28.280170+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LEE RODRIGUES</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>29190</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>67663249291</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:38:23.127872+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>LICINHO CARVALHO</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>30641</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>76781763253</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:05:40.556996+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>LILIAN MUTSUE PEREIRA SAKAMOTO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>29769</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>71366415272</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:04:10.686127+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>LUCAS PINTO FERNANDES</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>36545</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>02721845276</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:57:35.229135+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>LUCIANA SENA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>28716</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>66017793268</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:09:09.485814+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>MARCINEY SILVA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>29029</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>73830771215</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:34:13.694513+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>MARCO BARAÚNA SCHULER</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>34127</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>02549946286</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:09:31.906901+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>MARCOS VALÉRIO ALMEIDA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>23835</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21426872291</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:27:14.210858+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MARIA CLAUDIA DE OLIVEIRA LEITE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>28140</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>51030578249</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:04:52.432346+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>MARIA CLAUDIA DE OLIVEIRA LEITE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>28140</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>51030578249</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:09:09.912412+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MARIA DE NAZARÉ PINHEIRO NAZARÉ M</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>19952</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>04115481234</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:33:53.572006+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MARIA DO SOCORRO SANTOS DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>23555</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>31327249200</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:41:52.234865+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MARIA FRANÇA MARINHO</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>31263</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90961196220</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:09:10.166705+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MARIA OTAPIASSIS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>23845</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>60633417220</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:51:50.086039+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MARIO SOUZA DA SILVA JUNIOR</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>30002</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>71182462200</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:09:10.336366+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MARY ANNE ROCHA GARCEZ</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>28877</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>64459497204</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:09:14.759994+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MATEUS FERREIRA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>34635</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>87382369234</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:05:32.406134+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MATEUS FERREIRA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>34635</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87382369234</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:05:59.891660+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MATHEUS COSTA DE ANDRADE</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>35521</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>02003438238</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:18:29.566041+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MATHEUS COSTA DE ANDRADE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>35521</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>02003438238</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:18:50.259225+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MATHEUS DE MENEZES ARRUDA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>35621</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>02834521298</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:03:37.386427+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MIQUEIAS MATIAS FERNANDES JUNIOR</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>31736</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85106119200</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:18:55.965306+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MIRACI MOREIRA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>21640</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>07585535287</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:07:59.442023+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>OCIVALDO JOSE DA SILVA AIRES</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>22199</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>12644960282</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2023-10-06 18:45:15.846452+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>OTAVIO AUGUSTO FREITAS CORREA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>38752</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>70074817280</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:37:02.451299+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>PATRICK WENDEL GOMES PALHA MAIA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>38653</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>01848243200</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:24:19.270354+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>PEDRO LUCAS MARINHO CARVALHO</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>38200</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>02633192297</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:44:42.651849+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>PEDRO LUCAS MARINHO CARVALHO</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>38200</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>02633192297</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2023-10-06 14:45:35.654094+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>RAFAEL GONÇALVES DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>29650</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>01218842601</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:30:44.965698+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>RAFAEL MOURÃO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>30265</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>71820620204</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H126" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:54:37.727033+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RAYOL DE MENDONÇA NETO</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>31946</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85916854234</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:11:20.266440+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>RAYOL DE MENDONÇA NETO</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>31946</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85916854234</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:11:48.658335+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>129</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>RICHARD LUCAS COELHO FERREIRA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>35336</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>01878869205</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:16:50.575525+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>130</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>RICHARD LUCAS COELHO FERREIRA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>35336</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>01878869205</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:17:15.427235+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>131</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>RICHARD LUCAS COELHO FERREIRA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>35336</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>01878869205</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:17:31.011105+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>132</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ROBERTO DE LIMA CAMINHA NETO</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>27300</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>44565631253</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:46:11.497919+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>133</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>RONALDO VIANA TRINDADE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>33806</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>01586737279</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:47:20.275171+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>134</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SANDERLEY DE SOUZA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>28462</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>61372579249</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2023-10-06 23:39:27.596668+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>135</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SARA HELEN ALVES GOMES</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>33021</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>00845564200</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:25:28.298872+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>136</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SHIRLLANE RODRIGUES</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>32289</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>06787752490</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:27:31.924984+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>137</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SUELLEN MAQUINÉ DA SILVA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>30246</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>70877890234</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>REV 3x500M</t>
+        </is>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:02:58.600087+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>138</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SUELLEN MAQUINÉ DA SILVA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>30246</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>70877890234</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:01:25.467289+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>139</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>THAIS HELENA CHAVES DE CASTRO</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>28151</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>60955686253</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:00:06.242243+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>140</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>THIAGO HOYOS MEDEIROS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>29819</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>52062112220</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:29:17.385521+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>141</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>VINICIUS CAVALCANTI</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>28325</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>60321954220</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:10:32.167214+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>142</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>YRIANE PEREIRA NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>33564</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>00312591209</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:15:54.027971+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>143</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>YRIANE PEREIRA NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>33564</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>00312591209</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2023-10-06 19:15:21.779436+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>144</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>GUSTAVO DE OLIVEIRA BARROS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>38666</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>05802538210</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2023-10-06 22:04:58.355014+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>200</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SERGIO SALVADOR RODRIGUES RITTER</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>20197</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1,5K</t>
+        </is>
+      </c>
+      <c r="H145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2023-10-06 17:25:52.535287+00:00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
